--- a/excel_routes/route_AHB_CAI_threats.xlsx
+++ b/excel_routes/route_AHB_CAI_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,18 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -83,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -92,12 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -546,12 +528,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>08-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-448</t>
+          <t>SM-444</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -560,13 +542,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>671</v>
+        <v>550</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>786</v>
+        <v>564</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-115</v>
+        <v>-14</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,27 +573,27 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>11-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-444</t>
+          <t>SM-448</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>564</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-25</v>
+        <v>-14</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +618,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>11-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -681,12 +663,12 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>SM-448</t>
+          <t>SM-444</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -695,13 +677,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-14</v>
+        <v>-77</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>16-JAN-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -740,13 +722,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-25</v>
+        <v>-54</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,7 +753,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>06-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,13 +767,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-25</v>
+        <v>-54</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -816,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +808,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-14</v>
+        <v>-54</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -861,27 +843,27 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-448</t>
+          <t>SM-444</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-14</v>
+        <v>-54</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -906,7 +888,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -920,13 +902,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>539</v>
+        <v>725</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>564</v>
+        <v>786</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-25</v>
+        <v>-61</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -943,726 +925,6 @@
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>25-JAN-26</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>539</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>564</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-25</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>25-JAN-26</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-144</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>550</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>564</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-14</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>30-JAN-26</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>539</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>564</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>-25</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>01-FEB-26</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>539</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>01-FEB-26</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-144</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>571</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>-77</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>06-FEB-26</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>575</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>-73</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>08-FEB-26</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>575</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>-73</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>13-FEB-26</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>613</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>-35</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>15-FEB-26</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>613</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>-35</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>20-FEB-26</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>539</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>01-MAR-26</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-144</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>863</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>883</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>-20</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>06-MAR-26</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>874</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>1013</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>-139</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>15-MAR-26</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>1181</v>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>1728</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>-547</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>15-MAR-26</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-144</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>1471</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>1728</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>-257</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>22-MAR-26</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-144</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>863</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>883</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>-20</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>27-MAR-26</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>SM-444</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-512</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>539</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>-109</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_AHB_CAI_threats.xlsx
+++ b/excel_routes/route_AHB_CAI_threats.xlsx
@@ -537,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>06-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>647</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-76</v>
+        <v>-7</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -627,7 +627,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -637,17 +637,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>647</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-53</v>
+        <v>-76</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -717,12 +717,12 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-444</t>
+          <t>SM-448</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>640</v>
+        <v>571</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>647</v>
+        <v>591</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-7</v>
+        <v>-20</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -762,27 +762,27 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>SM-448</t>
+          <t>SM-444</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>571</v>
+        <v>594</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>591</v>
+        <v>721</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-20</v>
+        <v>-127</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -807,7 +807,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>594</v>
+        <v>725</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>721</v>
+        <v>786</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-127</v>
+        <v>-61</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -852,7 +852,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -869,10 +869,10 @@
         <v>725</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>786</v>
+        <v>883</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-61</v>
+        <v>-158</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -907,17 +907,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>725</v>
+        <v>863</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>883</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-158</v>
+        <v>-20</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -942,12 +942,12 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-444</t>
+          <t>SM-448</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>863</v>
+        <v>1101</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>883</v>
+        <v>1159</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-20</v>
+        <v>-58</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -987,27 +987,27 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>SM-448</t>
+          <t>SM-444</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1101</v>
+        <v>874</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>1159</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-58</v>
+        <v>-285</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1018,9 +1018,9 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1049,10 +1049,10 @@
         <v>874</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1159</v>
+        <v>1013</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-285</v>
+        <v>-139</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1063,9 +1063,9 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1077,7 +1077,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>874</v>
+        <v>1180</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1013</v>
+        <v>1306</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-139</v>
+        <v>-126</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1122,7 +1122,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1180</v>
+        <v>650</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1306</v>
+        <v>883</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-126</v>
+        <v>-233</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1198,9 +1198,9 @@
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>883</v>
+        <v>721</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-233</v>
+        <v>-109</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1243,9 +1243,9 @@
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/excel_routes/route_AHB_CAI_threats.xlsx
+++ b/excel_routes/route_AHB_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>647</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-53</v>
+        <v>-35</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -636,27 +636,27 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-448</t>
+          <t>SM-444</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>571</v>
+        <v>612</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>591</v>
+        <v>647</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>721</v>
+        <v>647</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-127</v>
+        <v>-7</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,27 +726,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-444</t>
+          <t>SM-448</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>786</v>
+        <v>591</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-192</v>
+        <v>-20</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>725</v>
+        <v>513</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1013</v>
+        <v>721</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-288</v>
+        <v>-208</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>863</v>
+        <v>513</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1013</v>
+        <v>591</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-150</v>
+        <v>-78</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -861,27 +861,27 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>27-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-448</t>
+          <t>SM-444</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1101</v>
+        <v>513</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1159</v>
+        <v>883</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-58</v>
+        <v>-370</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -892,9 +892,9 @@
       <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J9" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>934</v>
+        <v>971</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1159</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-225</v>
+        <v>-42</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -937,9 +937,9 @@
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>13-MAR-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1181</v>
+        <v>934</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1306</v>
+        <v>1159</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-125</v>
+        <v>-225</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -982,9 +982,9 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>15-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1181</v>
+        <v>934</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1306</v>
+        <v>1013</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-125</v>
+        <v>-79</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1181</v>
+        <v>1236</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1306</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-125</v>
+        <v>-70</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1100,13 +1100,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>687</v>
+        <v>1236</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>883</v>
+        <v>1306</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-196</v>
+        <v>-70</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>613</v>
+        <v>513</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>721</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-108</v>
+        <v>-208</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1162,9 +1162,9 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>588</v>
+        <v>507</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>648</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-60</v>
+        <v>-141</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1280,13 +1280,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>588</v>
+        <v>507</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1501</v>
+        <v>564</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-913</v>
+        <v>-57</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1297,9 +1297,9 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-514</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1271</v>
+        <v>934</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>1501</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-230</v>
+        <v>-567</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1342,9 +1342,9 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>23-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-514</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1181</v>
+        <v>928</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>1501</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-320</v>
+        <v>-573</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1387,12 +1387,192 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>SM-444</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-144</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>-230</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
-      <c r="K20" s="2" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>21-MAY-26</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>SM-444</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-512</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1231</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-270</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>23-MAY-26</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>SM-444</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-514</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>1236</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>-265</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>25-MAY-26</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>SM-444</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-512</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>1231</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>-270</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_AHB_CAI_threats.xlsx
+++ b/excel_routes/route_AHB_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,27 +546,27 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>19-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SM-444</t>
+          <t>SM-448</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>612</v>
+        <v>550</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>647</v>
+        <v>564</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-35</v>
+        <v>-14</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>20-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>640</v>
+        <v>513</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>647</v>
+        <v>564</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-7</v>
+        <v>-51</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>612</v>
+        <v>513</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>647</v>
+        <v>564</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-35</v>
+        <v>-51</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>22-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>647</v>
+        <v>564</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,27 +726,27 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SM-448</t>
+          <t>SM-444</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-144</t>
+          <t>Air Arabia Egypt E5-512</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>591</v>
+        <v>1013</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-20</v>
+        <v>-400</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -757,9 +757,9 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>20-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,17 +781,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>513</v>
+        <v>640</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>721</v>
+        <v>1013</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-208</v>
+        <v>-373</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -816,27 +816,27 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>22-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-444</t>
+          <t>SM-448</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>513</v>
+        <v>971</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>591</v>
+        <v>1159</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-78</v>
+        <v>-188</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>27-FEB-26</t>
+          <t>06-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>513</v>
+        <v>934</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>883</v>
+        <v>1159</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-370</v>
+        <v>-225</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -951,27 +951,27 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>06-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-444</t>
+          <t>SM-448</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>934</v>
+        <v>1271</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1159</v>
+        <v>1306</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-225</v>
+        <v>-35</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -982,9 +982,9 @@
       <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>934</v>
+        <v>1237</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1013</v>
+        <v>1501</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-79</v>
+        <v>-264</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1027,9 +1027,9 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J12" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1236</v>
+        <v>1101</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>1306</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-70</v>
+        <v>-205</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1072,9 +1072,9 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>20-MAR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1100,13 +1100,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>1306</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-70</v>
+        <v>-69</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1131,27 +1131,27 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>27-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-444</t>
+          <t>SM-448</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-512</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>513</v>
+        <v>1271</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>721</v>
+        <v>2118</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-208</v>
+        <v>-847</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1162,9 +1162,9 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>30-MAR-26</t>
+          <t>20-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>507</v>
+        <v>1237</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>648</v>
+        <v>1306</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-141</v>
+        <v>-69</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1221,12 +1221,12 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-444</t>
+          <t>SM-448</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>571</v>
+        <v>671</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>591</v>
+        <v>786</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-20</v>
+        <v>-115</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>02-APR-26</t>
+          <t>27-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1280,13 +1280,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>564</v>
+        <v>786</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-57</v>
+        <v>-273</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1297,9 +1297,9 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>16-MAY-26</t>
+          <t>29-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-514</t>
+          <t>Nile Air NP-144</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>934</v>
+        <v>763</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1501</v>
+        <v>786</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-567</v>
+        <v>-23</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1342,9 +1342,9 @@
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>18-MAY-26</t>
+          <t>30-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>928</v>
+        <v>507</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1501</v>
+        <v>648</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-573</v>
+        <v>-141</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1387,9 +1387,9 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1271</v>
+        <v>571</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1501</v>
+        <v>591</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-230</v>
+        <v>-20</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1432,9 +1432,9 @@
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>21-MAY-26</t>
+          <t>02-APR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1460,13 +1460,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1231</v>
+        <v>507</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1501</v>
+        <v>564</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-270</v>
+        <v>-57</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1477,9 +1477,9 @@
       <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>23-MAY-26</t>
+          <t>16-MAY-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1505,13 +1505,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1236</v>
+        <v>934</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>1501</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-265</v>
+        <v>-567</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1522,9 +1522,9 @@
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>25-MAY-26</t>
+          <t>18-MAY-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1550,29 +1550,119 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1231</v>
+        <v>929</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>1501</v>
       </c>
       <c r="F24" s="2" t="n">
+        <v>-572</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>20-MAY-26</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>SM-444</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-144</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>1271</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>-230</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>21-MAY-26</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>SM-444</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-512</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1231</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1501</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>-270</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="G26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
         <is>
           <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_AHB_CAI_threats.xlsx
+++ b/excel_routes/route_AHB_CAI_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED277DA-45E5-4258-88D9-50EAAD6D658C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A94FD93-CC7B-44EA-B135-8AB44EDD24EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>05-FEB-26</t>
+    <t>19-FEB-26</t>
   </si>
   <si>
     <t>SM-448</t>
@@ -75,7 +75,7 @@
     <t>SAR</t>
   </si>
   <si>
-    <t>06-FEB-26</t>
+    <t>20-FEB-26</t>
   </si>
   <si>
     <t>SM-444</t>
@@ -84,28 +84,73 @@
     <t>Air Arabia Egypt E5-512</t>
   </si>
   <si>
-    <t>08-FEB-26</t>
-  </si>
-  <si>
-    <t>12-FEB-26</t>
-  </si>
-  <si>
-    <t>15-FEB-26</t>
-  </si>
-  <si>
-    <t>20-FEB-26</t>
-  </si>
-  <si>
     <t>22-FEB-26</t>
   </si>
   <si>
-    <t>26-FEB-26</t>
-  </si>
-  <si>
     <t>01-MAR-26</t>
   </si>
   <si>
     <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>05-MAR-26</t>
+  </si>
+  <si>
+    <t>06-MAR-26</t>
+  </si>
+  <si>
+    <t>08-MAR-26</t>
+  </si>
+  <si>
+    <t>12-MAR-26</t>
+  </si>
+  <si>
+    <t>13-MAR-26</t>
+  </si>
+  <si>
+    <t>15-MAR-26</t>
+  </si>
+  <si>
+    <t>19-MAR-26</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
+  </si>
+  <si>
+    <t>20-MAR-26</t>
+  </si>
+  <si>
+    <t>26-MAR-26</t>
+  </si>
+  <si>
+    <t>27-MAR-26</t>
+  </si>
+  <si>
+    <t>29-MAR-26</t>
+  </si>
+  <si>
+    <t>30-MAR-26</t>
+  </si>
+  <si>
+    <t>01-APR-26</t>
+  </si>
+  <si>
+    <t>02-APR-26</t>
+  </si>
+  <si>
+    <t>16-MAY-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-514</t>
+  </si>
+  <si>
+    <t>18-MAY-26</t>
+  </si>
+  <si>
+    <t>20-MAY-26</t>
+  </si>
+  <si>
+    <t>21-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -132,7 +177,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +200,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF3CD"/>
         <bgColor rgb="FFFFF3CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -185,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +248,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,7 +556,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +570,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,13 +620,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>863</v>
+        <v>550</v>
       </c>
       <c r="E2" s="2">
-        <v>1013</v>
+        <v>564</v>
       </c>
       <c r="F2" s="2">
-        <v>-150</v>
+        <v>-14</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -601,13 +655,13 @@
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>837</v>
+        <v>513</v>
       </c>
       <c r="E3" s="2">
-        <v>883</v>
+        <v>564</v>
       </c>
       <c r="F3" s="2">
-        <v>-46</v>
+        <v>-51</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -633,16 +687,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>640</v>
+        <v>513</v>
       </c>
       <c r="E4" s="2">
-        <v>721</v>
+        <v>564</v>
       </c>
       <c r="F4" s="2">
-        <v>-81</v>
+        <v>-51</v>
       </c>
       <c r="G4" s="2">
         <v>30</v>
@@ -668,16 +722,16 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E5" s="2">
-        <v>721</v>
+        <v>564</v>
       </c>
       <c r="F5" s="2">
-        <v>-71</v>
+        <v>-14</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -700,19 +754,19 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="E6" s="2">
-        <v>591</v>
+        <v>1013</v>
       </c>
       <c r="F6" s="2">
-        <v>-20</v>
+        <v>-400</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -723,8 +777,8 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
+      <c r="J6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -732,7 +786,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -741,13 +795,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="E7" s="2">
-        <v>648</v>
+        <v>1013</v>
       </c>
       <c r="F7" s="2">
-        <v>-77</v>
+        <v>-373</v>
       </c>
       <c r="G7" s="2">
         <v>30</v>
@@ -758,8 +812,8 @@
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
+      <c r="J7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
@@ -767,22 +821,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>613</v>
+        <v>971</v>
       </c>
       <c r="E8" s="2">
-        <v>648</v>
+        <v>1159</v>
       </c>
       <c r="F8" s="2">
-        <v>-35</v>
+        <v>-188</v>
       </c>
       <c r="G8" s="2">
         <v>30</v>
@@ -802,7 +856,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -811,13 +865,13 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>513</v>
+        <v>934</v>
       </c>
       <c r="E9" s="2">
-        <v>564</v>
+        <v>1159</v>
       </c>
       <c r="F9" s="2">
-        <v>-51</v>
+        <v>-225</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -828,8 +882,8 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
+      <c r="J9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>15</v>
@@ -837,22 +891,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>513</v>
+        <v>971</v>
       </c>
       <c r="E10" s="2">
-        <v>564</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="2">
-        <v>-51</v>
+        <v>-42</v>
       </c>
       <c r="G10" s="2">
         <v>30</v>
@@ -872,22 +926,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>550</v>
+        <v>1271</v>
       </c>
       <c r="E11" s="2">
-        <v>564</v>
+        <v>1306</v>
       </c>
       <c r="F11" s="2">
-        <v>-14</v>
+        <v>-35</v>
       </c>
       <c r="G11" s="2">
         <v>30</v>
@@ -907,22 +961,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>550</v>
+        <v>1237</v>
       </c>
       <c r="E12" s="2">
-        <v>564</v>
+        <v>1501</v>
       </c>
       <c r="F12" s="2">
-        <v>-14</v>
+        <v>-264</v>
       </c>
       <c r="G12" s="2">
         <v>30</v>
@@ -933,8 +987,8 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
+      <c r="J12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -942,22 +996,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
-        <v>613</v>
+        <v>1101</v>
       </c>
       <c r="E13" s="2">
-        <v>1013</v>
+        <v>1306</v>
       </c>
       <c r="F13" s="2">
-        <v>-400</v>
+        <v>-205</v>
       </c>
       <c r="G13" s="2">
         <v>30</v>
@@ -969,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
@@ -977,36 +1031,456 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1237</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1306</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-69</v>
+      </c>
+      <c r="G14" s="2">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
+        <v>1271</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2118</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-847</v>
+      </c>
+      <c r="G15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1237</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1306</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-69</v>
+      </c>
+      <c r="G16" s="2">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
         <v>671</v>
       </c>
-      <c r="E14" s="2">
-        <v>1013</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-342</v>
-      </c>
-      <c r="G14" s="2">
-        <v>30</v>
-      </c>
-      <c r="H14" s="2">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="E17" s="2">
+        <v>786</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-115</v>
+      </c>
+      <c r="G17" s="2">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2">
+        <v>513</v>
+      </c>
+      <c r="E18" s="2">
+        <v>786</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-273</v>
+      </c>
+      <c r="G18" s="2">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>763</v>
+      </c>
+      <c r="E19" s="2">
+        <v>786</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-23</v>
+      </c>
+      <c r="G19" s="2">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2">
+        <v>507</v>
+      </c>
+      <c r="E20" s="2">
+        <v>648</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-141</v>
+      </c>
+      <c r="G20" s="2">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <v>571</v>
+      </c>
+      <c r="E21" s="2">
+        <v>591</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-20</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>507</v>
+      </c>
+      <c r="E22" s="2">
+        <v>564</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-57</v>
+      </c>
+      <c r="G22" s="2">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2">
+        <v>934</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1501</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-567</v>
+      </c>
+      <c r="G23" s="2">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2">
+        <v>929</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1501</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-572</v>
+      </c>
+      <c r="G24" s="2">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1271</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1501</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-230</v>
+      </c>
+      <c r="G25" s="2">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1231</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1501</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-270</v>
+      </c>
+      <c r="G26" s="2">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
